--- a/output/MHR/Report_MHR_2025-01-22.xlsx
+++ b/output/MHR/Report_MHR_2025-01-22.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="64">
   <si>
     <t>კომპანია</t>
   </si>
@@ -65,6 +65,9 @@
     <t>თანხა</t>
   </si>
   <si>
+    <t>ანგარიშის ნომერი</t>
+  </si>
+  <si>
     <t>კატეგორია</t>
   </si>
   <si>
@@ -198,6 +201,9 @@
   </si>
   <si>
     <t>PMI</t>
+  </si>
+  <si>
+    <t>GE15BG0000000817243000</t>
   </si>
   <si>
     <t>bank</t>
@@ -565,13 +571,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM14"/>
+  <dimension ref="A1:AN14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,22 +695,25 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:39">
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>45679</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>7.53</v>
@@ -716,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2">
         <v>99886.48</v>
@@ -733,22 +742,25 @@
       <c r="O2">
         <v>-7.53</v>
       </c>
-    </row>
-    <row r="3" spans="1:39">
+      <c r="P2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2">
         <v>45679</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -760,13 +772,13 @@
         <v>58.76</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3">
         <v>99886.48</v>
@@ -777,22 +789,25 @@
       <c r="O3">
         <v>58.76</v>
       </c>
-    </row>
-    <row r="4" spans="1:39">
+      <c r="P3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <v>45679</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -804,13 +819,13 @@
         <v>59.26</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M4">
         <v>99886.48</v>
@@ -821,22 +836,25 @@
       <c r="O4">
         <v>59.26</v>
       </c>
-    </row>
-    <row r="5" spans="1:39">
+      <c r="P4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
         <v>45679</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -848,13 +866,13 @@
         <v>85.66</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M5">
         <v>99886.48</v>
@@ -865,22 +883,25 @@
       <c r="O5">
         <v>85.66</v>
       </c>
-    </row>
-    <row r="6" spans="1:39">
+      <c r="P5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2">
         <v>45679</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -892,13 +913,13 @@
         <v>99.09999999999999</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M6">
         <v>99886.48</v>
@@ -909,22 +930,25 @@
       <c r="O6">
         <v>99.09999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:39">
+      <c r="P6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2">
         <v>45679</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -936,13 +960,13 @@
         <v>131.97</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M7">
         <v>99886.48</v>
@@ -953,22 +977,25 @@
       <c r="O7">
         <v>131.97</v>
       </c>
-    </row>
-    <row r="8" spans="1:39">
+      <c r="P7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2">
         <v>45679</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -980,13 +1007,13 @@
         <v>150.5</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M8">
         <v>99886.48</v>
@@ -997,22 +1024,25 @@
       <c r="O8">
         <v>150.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:39">
+      <c r="P8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2">
         <v>45679</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1024,13 +1054,13 @@
         <v>162.85</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M9">
         <v>99886.48</v>
@@ -1041,22 +1071,25 @@
       <c r="O9">
         <v>162.85</v>
       </c>
-    </row>
-    <row r="10" spans="1:39">
+      <c r="P9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2">
         <v>45679</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1068,13 +1101,13 @@
         <v>193.71</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M10">
         <v>99886.48</v>
@@ -1085,22 +1118,25 @@
       <c r="O10">
         <v>193.71</v>
       </c>
-    </row>
-    <row r="11" spans="1:39">
+      <c r="P10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2">
         <v>45679</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1112,13 +1148,13 @@
         <v>196.71</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M11">
         <v>99886.48</v>
@@ -1129,22 +1165,25 @@
       <c r="O11">
         <v>196.71</v>
       </c>
-    </row>
-    <row r="12" spans="1:39">
+      <c r="P11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2">
         <v>45679</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1156,13 +1195,13 @@
         <v>226.09</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M12">
         <v>99886.48</v>
@@ -1173,22 +1212,25 @@
       <c r="O12">
         <v>226.09</v>
       </c>
-    </row>
-    <row r="13" spans="1:39">
+      <c r="P12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2">
         <v>45679</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1200,13 +1242,13 @@
         <v>228.08</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M13">
         <v>99886.48</v>
@@ -1217,22 +1259,25 @@
       <c r="O13">
         <v>228.08</v>
       </c>
-    </row>
-    <row r="14" spans="1:39">
+      <c r="P13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2">
         <v>45679</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1244,13 +1289,13 @@
         <v>313.74</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M14">
         <v>99886.48</v>
@@ -1260,6 +1305,9 @@
       </c>
       <c r="O14">
         <v>313.74</v>
+      </c>
+      <c r="P14" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1269,13 +1317,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM1"/>
+  <dimension ref="A1:AN1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1392,6 +1440,9 @@
       </c>
       <c r="AM1" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1401,13 +1452,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM1"/>
+  <dimension ref="A1:AN1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1524,6 +1575,9 @@
       </c>
       <c r="AM1" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1533,13 +1587,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM1"/>
+  <dimension ref="A1:AN1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1656,6 +1710,9 @@
       </c>
       <c r="AM1" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1665,13 +1722,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN14"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1790,24 +1847,27 @@
         <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>45679</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>7.53</v>
@@ -1819,13 +1879,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2">
         <v>99886.48</v>
@@ -1836,25 +1896,28 @@
       <c r="O2">
         <v>-7.53</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="P2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:40">
+      <c r="AO2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2">
         <v>45679</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1866,13 +1929,13 @@
         <v>58.76</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3">
         <v>99886.48</v>
@@ -1883,25 +1946,28 @@
       <c r="O3">
         <v>58.76</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="P3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:40">
+      <c r="AO3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <v>45679</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1913,13 +1979,13 @@
         <v>59.26</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M4">
         <v>99886.48</v>
@@ -1930,25 +1996,28 @@
       <c r="O4">
         <v>59.26</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="P4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:40">
+      <c r="AO4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
         <v>45679</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1960,13 +2029,13 @@
         <v>85.66</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M5">
         <v>99886.48</v>
@@ -1977,25 +2046,28 @@
       <c r="O5">
         <v>85.66</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="P5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:40">
+      <c r="AO5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2">
         <v>45679</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2007,13 +2079,13 @@
         <v>99.09999999999999</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M6">
         <v>99886.48</v>
@@ -2024,25 +2096,28 @@
       <c r="O6">
         <v>99.09999999999999</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="P6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:40">
+      <c r="AO6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2">
         <v>45679</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2054,13 +2129,13 @@
         <v>131.97</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M7">
         <v>99886.48</v>
@@ -2071,25 +2146,28 @@
       <c r="O7">
         <v>131.97</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="P7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:40">
+      <c r="AO7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2">
         <v>45679</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2101,13 +2179,13 @@
         <v>150.5</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M8">
         <v>99886.48</v>
@@ -2118,25 +2196,28 @@
       <c r="O8">
         <v>150.5</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="P8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:40">
+      <c r="AO8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2">
         <v>45679</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2148,13 +2229,13 @@
         <v>162.85</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M9">
         <v>99886.48</v>
@@ -2165,25 +2246,28 @@
       <c r="O9">
         <v>162.85</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="P9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:40">
+      <c r="AO9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2">
         <v>45679</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2195,13 +2279,13 @@
         <v>193.71</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M10">
         <v>99886.48</v>
@@ -2212,25 +2296,28 @@
       <c r="O10">
         <v>193.71</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="P10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:40">
+      <c r="AO10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2">
         <v>45679</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2242,13 +2329,13 @@
         <v>196.71</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M11">
         <v>99886.48</v>
@@ -2259,25 +2346,28 @@
       <c r="O11">
         <v>196.71</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="P11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:40">
+      <c r="AO11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2">
         <v>45679</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2289,13 +2379,13 @@
         <v>226.09</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M12">
         <v>99886.48</v>
@@ -2306,25 +2396,28 @@
       <c r="O12">
         <v>226.09</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="P12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:40">
+      <c r="AO12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2">
         <v>45679</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2336,13 +2429,13 @@
         <v>228.08</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M13">
         <v>99886.48</v>
@@ -2353,25 +2446,28 @@
       <c r="O13">
         <v>228.08</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="P13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:40">
+      <c r="AO13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2">
         <v>45679</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2383,13 +2479,13 @@
         <v>313.74</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M14">
         <v>99886.48</v>
@@ -2400,8 +2496,11 @@
       <c r="O14">
         <v>313.74</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="P14" t="s">
         <v>61</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
